--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12533\Desktop\Unity\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92284E-5A35-4CB8-B080-F4FD371AD143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F8912-74A4-4BCC-8533-EEC6897C2A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -97,6 +97,26 @@
   </si>
   <si>
     <t>LoginCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +148,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -488,19 +507,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H13"/>
+  <dimension ref="C3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -564,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -682,10 +701,10 @@
       <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -694,7 +713,7 @@
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>10005</v>
       </c>
     </row>
@@ -702,10 +721,10 @@
       <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -714,7 +733,74 @@
       <c r="G13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -728,16 +814,16 @@
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -801,7 +887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>200</v>
       </c>
